--- a/services.xlsx
+++ b/services.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentksuedu-my.sharepoint.com/personal/442102776_student_ksu_edu_sa/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5fc223fbb64eb760/المستندات/py_camp/UNIT-1-PROJECT/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="47" documentId="8_{BEE87BB6-6298-4764-92F3-938B7764C732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{090D9E94-975D-4D5C-B1EE-CAF825142347}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{88F85099-4496-4E84-884D-5B1A6873ECBF}"/>
+    <workbookView xWindow="5760" yWindow="216" windowWidth="17280" windowHeight="10356" xr2:uid="{88F85099-4496-4E84-884D-5B1A6873ECBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -449,7 +449,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
